--- a/tut05/output/0501ME10.xlsx
+++ b/tut05/output/0501ME10.xlsx
@@ -550,19 +550,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.510204081632653</v>
+        <v>7.51</v>
       </c>
       <c r="C6" t="n">
-        <v>7.568181818181818</v>
+        <v>7.57</v>
       </c>
       <c r="D6" t="n">
-        <v>6.872340425531915</v>
+        <v>6.87</v>
       </c>
       <c r="E6" t="n">
-        <v>7.081632653061225</v>
+        <v>7.08</v>
       </c>
       <c r="F6" t="n">
-        <v>7.043478260869565</v>
+        <v>7.04</v>
       </c>
       <c r="G6" t="n">
         <v>7</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.510204081632653</v>
+        <v>7.51</v>
       </c>
       <c r="C8" t="n">
-        <v>7.537634408602151</v>
+        <v>7.54</v>
       </c>
       <c r="D8" t="n">
-        <v>7.314285714285714</v>
+        <v>7.31</v>
       </c>
       <c r="E8" t="n">
-        <v>7.253968253968254</v>
+        <v>7.25</v>
       </c>
       <c r="F8" t="n">
-        <v>7.212765957446808</v>
+        <v>7.21</v>
       </c>
       <c r="G8" t="n">
-        <v>7.177935943060498</v>
+        <v>7.18</v>
       </c>
       <c r="H8" t="n">
-        <v>7.32398753894081</v>
+        <v>7.32</v>
       </c>
       <c r="I8" t="n">
-        <v>7.326869806094183</v>
+        <v>7.33</v>
       </c>
     </row>
   </sheetData>
